--- a/tests/data/no_country_data.xlsx
+++ b/tests/data/no_country_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8616" windowWidth="12264" xWindow="10392" yWindow="432"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" state="visible" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S5"/>
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -528,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>43617</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>43617</v>
@@ -632,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>43617</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>43617</v>
